--- a/marlene/src/main/resources/normal_A1A2_verbs.xlsx
+++ b/marlene/src/main/resources/normal_A1A2_verbs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antbf\Desktop\DESK\code\ExcelRead-master\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antbf\Desktop\DESK\schachner\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F5F383-3858-47B7-B4B1-D21C8B7378AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFC34FAE-A558-4B8A-A584-63E0B861D8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{54D3154B-6927-40B8-AA60-12D7E42B7D5F}"/>
   </bookViews>
